--- a/Information extraction.xlsx
+++ b/Information extraction.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_2DDD20E6EEC5289E456FDEC1062B9E2F7C307FA9" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{11AF8D77-F5EA-433C-BCB1-2749D6F174AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="687">
   <si>
     <t>Study Title</t>
   </si>
@@ -48,50 +49,6 @@
     <t>Strengths</t>
   </si>
   <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,126 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A Novel Parallel Architecture with Fault-Tolerance for Joining Bi-directional Data Streams in Cloud</t>
-  </si>
-  <si>
-    <t>Modeling and Designing Fault-Tolerance Mechanisms for MPI-Based MapReduce Data Computing Framework</t>
-  </si>
-  <si>
-    <t>Cache Support in a High Performance Fault-Tolerant Distributed Storage System for Cloud and Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fault-tolerance and Resilience in Cloud Computing Environments</t>
-  </si>
-  <si>
-    <t>Providing big data applications with fault-tolerant data migration across heterogeneous NoSQL databases</t>
-  </si>
-  <si>
-    <t>The  Fault-tolerance of Big Data Systems</t>
-  </si>
-  <si>
-    <t>A Big Data approach to enhance the integration of Access Control Policies for Web services</t>
-  </si>
-  <si>
-    <t>Database application model and its service for drug discovery in Model-driven architecture</t>
-  </si>
-  <si>
-    <t>DICE: quality-driven development of data-intensive cloud applications</t>
-  </si>
-  <si>
-    <t>Early Experience with Model-Driven Development of MapReduce Based Big Data Application</t>
-  </si>
-  <si>
-    <t>Model-Driven Observability for Big Data Storage</t>
-  </si>
-  <si>
-    <t>Towards a model-driven design tool for big data architectures</t>
-  </si>
-  <si>
-    <t>A big data framework for cloud monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptive, scalable and reliable monitoring of big data on clouds </t>
-  </si>
-  <si>
-    <t>An Overview of Monitoring Tools for Big Data and Cloud Applications</t>
-  </si>
-  <si>
-    <t>Data quality for data science, predictive analytics, and big data in supply chain management: An introduction to the problem and suggestions for research and applications</t>
-  </si>
-  <si>
-    <t>Real-Time QoS Monitoring for Cloud-Based Big Data Analytics Applications in Mobile Environments</t>
-  </si>
-  <si>
-    <t>Research on Big Data Real-Time Public Opinion Monitoring under the Double Cloud Architecture</t>
-  </si>
-  <si>
-    <t>Solving big data challenges for enterprise application performance management</t>
-  </si>
-  <si>
-    <t>Technical aspects and case study of big data based condition monitoring of power apparatuses</t>
-  </si>
-  <si>
-    <t>Ensemble of Bayesian Predictors and Decision Trees for Proactive Failure Management in Cloud Computing Systems</t>
-  </si>
-  <si>
-    <t>A Practical Approach to Hard Disk Failure Prediction in Cloud Platforms: Big Data Model for Failure Management in Datacenters</t>
-  </si>
-  <si>
-    <t>Provenance-based object storage prediction scheme for scientific big data applications</t>
-  </si>
-  <si>
-    <t>A Scalable Big Data Test Framework</t>
-  </si>
-  <si>
-    <t>Challenges and Techniques for Testing of Big Data</t>
-  </si>
-  <si>
-    <t>Extending search-based software testing techniques to big data applications</t>
-  </si>
-  <si>
-    <t>Introducing TPCx-HS: The First Industry Standard for Benchmarking Big Data Systems</t>
-  </si>
-  <si>
-    <t>Research of performance test technology for big data applications</t>
-  </si>
-  <si>
-    <t>Testing big data (Assuring the quality of large databases)</t>
-  </si>
-  <si>
-    <t>External integrity verification for outsourced big data in cloud and IoT: A big picture</t>
-  </si>
-  <si>
-    <t>A Machine Learning Based Framework for Veriﬁcation and Validation of Massive Scale Image Data</t>
-  </si>
-  <si>
-    <t>MtMR: Ensuring MapReduce Computation Integrity with Merkle Tree-based Verifications</t>
-  </si>
-  <si>
-    <t>DLSeF: A Dynamic Key-Length-Based Efficient Real-Time Security Verification Model for Big Data Stream</t>
-  </si>
-  <si>
-    <t>FlexAnalytics: A Flexible Data Analytics Framework for Big Data Applications with I/O Performance Improvement</t>
-  </si>
-  <si>
-    <t>Data confidentiality challenges in big data applications</t>
-  </si>
-  <si>
-    <t>Performance analysis model for big data applications in cloud computing</t>
-  </si>
-  <si>
-    <t>A framework to specify big data driven complex cyber physical control systems</t>
-  </si>
-  <si>
-    <t>A Requirements Specification Framework for Big Data Collection and Capture</t>
-  </si>
-  <si>
-    <t>Understanding quality requirements in the context of big data systems</t>
-  </si>
-  <si>
-    <t>A bloat-aware design for big data applications</t>
-  </si>
-  <si>
     <t>Liu X, Fan X, Li J.</t>
   </si>
   <si>
@@ -309,9 +146,6 @@
   </si>
   <si>
     <t>Sneed H M, Erdoes K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liu C, Yang C, et al. </t>
   </si>
   <si>
     <t xml:space="preserve">Junhua Ding, Xin-Hua Hu et al, </t>
@@ -668,9 +502,6 @@
     <t xml:space="preserve">a multi cloud environment </t>
   </si>
   <si>
-    <t xml:space="preserve">MapReduce </t>
-  </si>
-  <si>
     <t>efficiency</t>
   </si>
   <si>
@@ -804,14 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integrity verification mechanism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Efficiency, Security, scalability, elasticity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>integrity</t>
   </si>
   <si>
@@ -830,10 +653,6 @@
   </si>
   <si>
     <t>Verification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1011,10 +830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BDWatchdog: Real-time monitoring and profiling of Big Data applications and frameworks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enes, Jonatan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume, variety,velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">performance, scalability and reliability </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1055,10 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MapReduce based Classification for Fault Detection in Big Data Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shafiq, M. Omair and Fekri, Maryam and Ibrahim, Rami</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Automated IT system failure prediction: A deep learning approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,10 +915,6 @@
   </si>
   <si>
     <t>accurate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empirical comparison of machine learning algorithms for bug prediction in open source software</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1224,10 +1023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Software system testing method based on formal model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Weixiang Zhang, Wenhong Liu, Bo Wei </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1252,38 +1047,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,22 +1063,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1332,18 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research on reliability evaluation of big data system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Research on Industrial Big Data Information Security Risks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,10 +1099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Feng Xiaorong, Jia Shizhun et al</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,18 +1166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FeT: Hybrid Cloud-Based Mobile Bank Application Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metamorphic Testing of Image Region Growth Programs in Image Processing Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research on Software Testing Technology Under the Background of Big Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,38 +1254,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1575,10 +1274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,30 +1290,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This information is extracted according to the information form, the contents of which are objective.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1671,10 +1350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Propose methods for monitoring and controlling data quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>An experimental comparison between big data of real-time public opinion monitoring model under the double layer cloud architecture and the traditional centralized deployment algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1744,10 +1419,6 @@
   </si>
   <si>
     <t>Describes the current situation of the software testing technology under the background of big data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Providing an analysis on authenticator-based data integrity verification techniques</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1913,13 +1584,6 @@
   </si>
   <si>
     <t>The level of software testing should be improved accordingly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrity verification mechanisms will also continue evolving along
-with the development of cloud and big data applications to meet
-emerging new requirements and address new security challenges
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2081,14 +1745,917 @@
   </si>
   <si>
     <t xml:space="preserve"> Involve practitioners using the approach in their projects and observing the cost, effort, quality, and time aspects of requirements specification. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Novel Parallel Architecture with Fault-Tolerance for Joining Bi-directional Data Streams in Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling and Designing Fault-Tolerance Mechanisms for MPI-Based MapReduce Data Computing Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache Support in a High Performance Fault-Tolerant Distributed Storage System for Cloud and Big Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fault-tolerance and Resilience in Cloud Computing Environments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Providing big data applications with fault-tolerant data migration across heterogeneous NoSQL databases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The  Fault-tolerance of Big Data Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Big Data approach to enhance the integration of Access Control Policies for Web services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database application model and its service for drug discovery in Model-driven architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICE: quality-driven development of data-intensive cloud applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early Experience with Model-Driven Development of MapReduce Based Big Data Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model-Driven Observability for Big Data Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards a model-driven design tool for big data architectures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A big data framework for cloud monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDWatchdog: Real-time monitoring and profiling of Big Data applications and frameworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive, scalable and reliable monitoring of big data on clouds </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Overview of Monitoring Tools for Big Data and Cloud Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data quality for data science, predictive analytics, and big data in supply chain management: An introduction to the problem and suggestions for research and applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-Time QoS Monitoring for Cloud-Based Big Data Analytics Applications in Mobile Environments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose methods for monitoring and controlling data quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapReduce based Classification for Fault Detection in Big Data Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understanding quality requirements in the context of big data systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Requirements Specification Framework for Big Data Collection and Capture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A framework to specify big data driven complex cyber physical control systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research on reliability evaluation of big data system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance analysis model for big data applications in cloud computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data confidentiality challenges in big data applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlexAnalytics: A Flexible Data Analytics Framework for Big Data Applications with I/O Performance Improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLSeF: A Dynamic Key-Length-Based Efficient Real-Time Security Verification Model for Big Data Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MtMR: Ensuring MapReduce Computation Integrity with Merkle Tree-based Verifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Machine Learning Based Framework for Veriﬁcation and Validation of Massive Scale Image Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research on Software Testing Technology Under the Background of Big Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metamorphic Testing of Image Region Growth Programs in Image Processing Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeT: Hybrid Cloud-Based Mobile Bank Application Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software system testing method based on formal model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing big data (Assuring the quality of large databases)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research of performance test technology for big data applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introducing TPCx-HS: The First Industry Standard for Benchmarking Big Data Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extending search-based software testing techniques to big data applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenges and Techniques for Testing of Big Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Scalable Big Data Test Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical comparison of machine learning algorithms for bug prediction in open source software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated IT system failure prediction: A deep learning approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provenance-based object storage prediction scheme for scientific big data applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Practical Approach to Hard Disk Failure Prediction in Cloud Platforms: Big Data Model for Failure Management in Datacenters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ensemble of Bayesian Predictors and Decision Trees for Proactive Failure Management in Cloud Computing Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical aspects and case study of big data based condition monitoring of power apparatuses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solving big data challenges for enterprise application performance management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research on Big Data Real-Time Public Opinion Monitoring under the Double Cloud Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kunding Fang, Xiaohong Li et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feng Xiaorong, Jia Shizhun et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threat Analysis of Software Systems: A Systematic
+Literature Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing Software Systems to Big Data Platform
+based on MapReduce model: an Approach
+based on Model Driven Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rafael Tolosana-Calasanz et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chang Liu, Chi Yang at al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal verification problems in a big data
+world: towards a mighty synergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring Large Cloud-Based Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAD: A Monitor System for Big Data Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mingruo Shi, Ruiping Yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAPID: A Fast Data Update Protocol in Erasure
+Coded Storage Systems for Big Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G. J. Akash, Ojus Thomas Lee et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massimo Ficco, Francesco Palmieri et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Csaba Nagy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Katja Tuma, Gul Calikli et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. Sousa Osvaldo Jr, Denivaldo Lopes, Aristófanes C et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flora Amatoa, Francesco Moscatob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Xu, Markus Holzemer et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matteo Camilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weiyi Shang, Zhenming Jiang et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauro Andreolini et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holger Eichelberger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrea Rosa, Walter Binder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruchika Malhotra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bloat-aware design for big data applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal modeling and verification of security
+protocols on cloud computing systems based on
+UML 2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling security requirements for cloud-based
+system development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static Analysis of Data-Intensive Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model-driven development of data intensive
+applications over cloud resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model transformations of MapReduce Design
+Patterns for automatic development and verification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient fault-tolerance for iterative graph processing
+on distributed dataflow systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External integrity verification for outsourced big
+data in cloud and IoT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assisting developers of Big Data Analytics Applications
+when deploying on Hadoop clouds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexible System-Level Monitoring of Heterogeneous
+Big Data Streaming Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure Analysis and Prediction for Big-Data
+Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparative analysis of statistical and machine
+learning methods for predicting faulty modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security protocols on cloud computing systems based on UML 2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatically translate UML models to pi calculus specification, which allows us to verify the data secrecy and confidentiality of security protocols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appling to any cloud-computing
+applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply it to other cloud-computing protocols and verify the corresponding security properties systematically.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A set of stereotypes that defines a vocabulary for annotating Unified Modeling Language based models with information relevant for integrating the specification of security requirements into cloud architectures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This approach can be used to significantly improve
+productivity and overall success in the development of secure distributed cloud applications and systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design a full methodology to develop secure cloud applications in an easy way, such that the provided security is measurable and can be monitored by cloud service providers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Significantly improving
+productivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume, variety,velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reverse engineering methods in the context of data-intensive systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse engineering methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully creating architecture maps, supporting dead code elimination and identifing coding issues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Conducted a systematic literature review (SLR) of the existing techniques for threat analysis. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully analyzed largescale
+industrial projects written in ForrasSQL,
+Oracle PL/SQL and Magic 4GL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The existing techniques lack in quality assurance of outcomes. Furthermore, the techniques lack maturity, validation and tool support. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comprehensive study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate a risk-first lightweight approach for finding the most important threats sooner in the analysis procedure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Driven Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A practical approach based on MDE (Model Driven Engineering) to support the semi-automated development of software systems for Big Data platform that use MapReduce model. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume and variety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">performance and availability </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show the applicability of the proposed approach through an illustrative example.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic generation of complete source code and not only its skeleton through transformations.</t>
+  </si>
+  <si>
+    <t>Propose a Model Driven Engineering methodology to design, verify and develop MapReduce applications on Cloud Systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable MapReduce Designers to specify patterns they need. Pattern-based Specification is then automatically translated into a workflow process. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presenting a methodology to build and analyse composite MapReduce analytics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition of model transformation algorithms for the study of other properties like availability and to produce optimized workflows.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a model-driven and stepwise refinement methodological approach for streaming applications executed over clouds. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petri Net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The approach supports model reuse, and a way to combine formal analysis, simulation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The methodology is intended for all the engineering process stages,  we can analyse how it can be mapped onto cloud resources and obtain key performance indicators.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploit the approach in a real cloud
+infrastructure in the terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present two checkpointing schemes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume and  velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctness and reliability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrate the proposed checkpointing and recovery strategies in the Flink dataflow engine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Head checkpointing and confined recovery for faulttolerance on graph processing outperforms blocking checkpointing and complete recovery. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustrate the research problem, summarize and compare current achievements of several of the representative approaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the topic of integrity verification of big data in cloud computing is a flourishing area that is attracting more and more research interest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further research on efficiency, safety and  scalability/elasticity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce a distributed approach which exploits techniques typically used by the bigdata community to enable verification of very complex systems using bigdata approaches and cloud computing facilities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MapReduce </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement distributed reachability graph builders and verification tools for different formalisms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New tools can effectively validate very complex systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adapt cases of formalisms for which this approach cannot be used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propose a lightweight approach for uncovering differences between pseudo and large-scale cloud deployments. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The approach not only significantly reduces the deployment verification effort, but also provides very few false positives when identifying deployment failures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Drastically reduces the verification effort by 86–97% when verifying the deployment of BDA Apps in the cloud and the precision of our approach is comparable with the traditional keyword search approach. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are still other challenges of developing and testing BDA Apps, such as choosing an architecture that optimizes for cost and performance. Additional case studies are needed to better understand the strengths and limitations of our approach.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present a novel monitoring architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evaluate the scalability of the proposed architecture through a bottleneck analysis achieved by experimental results.</t>
+  </si>
+  <si>
+    <t>The architecture strives to obtain high scalability, effectiveness and resilience, as well as the possibility of monitoring services spanning across different clusters or even different data centers of the cloud provider.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate traffic scalability between data centers for common analytics for monitoring and compare with respect to stateof- the-art system architectures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identify three indispensable qualities monitor systems must fulfill namely timeliness, accuracy and flexibility.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A general-purpose MAD system is proposed to maintain an online/offline big data application in efficient and easy way. However, MAD system doesn’t resist on single point of failure. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alert timely with 100 % recall rate and very low false alarm (less than 2 %) and provide fine-grained diagnosis capacity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support other MapReduce implementations such as SCOPE and other workflow engine though the design itself provide corresponding interfaces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose a heterogeneous Big Data systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The practical  applicability of the method is verified in real project development.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A practical monitoring system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address the identified improvements discussed in this paper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault and failure prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study and predict three types of unsuccessful executions in traces of a Google datacenter, namely fail, kill, and eviction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proposed models can accurately classify 94.4 percent of jobs and 76.8 percent of events into four classes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Three on-line prediction models can classify jobs and events into four classes upon arrival time, using independent or nested Neural Networks. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyses and compares the statistical and six machine learning methods for fault prediction. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic regression (LR) analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirms the models using the ML methods such as ANN, SVM, DT, CCN, GMDH and GEP have predictive ability for predicting faulty and non faulty modules.</t>
+  </si>
+  <si>
+    <t>Researchers and software practitioners can use the model predicted in this paper to predict faulty or non faulty modules in the early phases of the software development.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the evolutionary or hybrid evolutionary algorithms for fault prediction </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present RAPID, a protocol for fast data updates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The data update performance of the new protocol has been improved by 30%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve the cost of data update operation in erasure coded storage systems by reducing the size of the code subset while ensuring the consistency of the data stored. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imply and deploy RAPID using Jerasure 1.2 API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2140,6 +2707,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2170,7 +2742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2178,13 +2750,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2196,14 +2762,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2484,41 +3053,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="11" width="42.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="46.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="40.75" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="11" width="42.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.77734375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2527,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2548,2385 +3123,3041 @@
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="C3" s="2">
         <v>2013</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>490</v>
+        <v>397</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>467</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>468</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>447</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>491</v>
+        <v>398</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>469</v>
       </c>
       <c r="C6" s="2">
         <v>2013</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>448</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>471</v>
       </c>
       <c r="C7" s="2">
         <v>2016</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>168</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>492</v>
+        <v>399</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="C8" s="2">
         <v>2016</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>171</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>493</v>
+        <v>400</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>356</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2">
         <v>2017</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>272</v>
+        <v>214</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>357</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2">
         <v>2017</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>281</v>
+        <v>223</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>358</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2">
         <v>2017</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>449</v>
+        <v>231</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="C12" s="2">
         <v>2015</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>450</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>263</v>
+        <v>310</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>359</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>476</v>
       </c>
       <c r="C13" s="2">
         <v>2015</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>175</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>360</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="C14" s="2">
         <v>2015</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>451</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2">
         <v>2014</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>452</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>497</v>
+        <v>404</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>361</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>479</v>
       </c>
       <c r="C16" s="2">
         <v>2016</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>453</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>362</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="C17" s="2">
         <v>2016</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>454</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>483</v>
       </c>
       <c r="C18" s="2">
         <v>2016</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>455</v>
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>364</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>294</v>
+        <v>485</v>
       </c>
       <c r="C19" s="2">
         <v>2018</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>304</v>
+        <v>238</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>301</v>
+        <v>613</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>365</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>305</v>
+        <v>495</v>
       </c>
       <c r="C20" s="2">
         <v>2017</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>456</v>
+        <v>247</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>538</v>
+        <v>444</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="C21" s="2">
         <v>2014</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>457</v>
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>264</v>
+        <v>141</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="C22" s="2">
         <v>2015</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>458</v>
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>386</v>
+        <v>310</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="C23" s="2">
         <v>2014</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>459</v>
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>493</v>
       </c>
       <c r="C24" s="2">
         <v>2014</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>197</v>
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>265</v>
+        <v>310</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>547</v>
       </c>
       <c r="C25" s="2">
         <v>2016</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>460</v>
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>266</v>
+        <v>310</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>199</v>
+        <v>651</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
       <c r="C26" s="2">
         <v>2012</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="C27" s="2">
         <v>2014</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>462</v>
+        <v>31</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>367</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>541</v>
       </c>
       <c r="C28" s="2">
         <v>2012</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>208</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>368</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="C29" s="2">
         <v>2016</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>463</v>
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>506</v>
+        <v>54</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C30" s="2">
         <v>2014</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>464</v>
+        <v>34</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>258</v>
+      </c>
       <c r="J30" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>311</v>
+        <v>535</v>
       </c>
       <c r="C31" s="2">
         <v>2017</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>314</v>
+        <v>253</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>370</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>320</v>
+        <v>533</v>
       </c>
       <c r="C32" s="2">
         <v>2017</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>465</v>
+        <v>261</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>371</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2">
         <v>2017</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>466</v>
+        <v>269</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>510</v>
+        <v>417</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>423</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2">
         <v>2018</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>467</v>
+        <v>316</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>511</v>
+        <v>418</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>424</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>530</v>
       </c>
       <c r="C35" s="2">
         <v>2015</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>468</v>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>372</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>528</v>
       </c>
       <c r="C36" s="2">
         <v>2016</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>469</v>
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>163</v>
+      </c>
       <c r="I36" s="2" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>373</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>526</v>
       </c>
       <c r="C37" s="2">
         <v>2016</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>470</v>
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>425</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>525</v>
       </c>
       <c r="C38" s="2">
         <v>2014</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>221</v>
+        <v>38</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>222</v>
+        <v>627</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>426</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>523</v>
       </c>
       <c r="C39" s="2">
         <v>2014</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>471</v>
+        <v>39</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>374</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>521</v>
       </c>
       <c r="C40" s="2">
         <v>2015</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>472</v>
+        <v>40</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>267</v>
+        <v>176</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>427</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2">
         <v>2018</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>336</v>
+        <v>273</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>339</v>
+        <v>277</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>514</v>
+        <v>421</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2">
         <v>2017</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>473</v>
+        <v>283</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>345</v>
+        <v>310</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>375</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>347</v>
+        <v>520</v>
       </c>
       <c r="C43" s="2">
         <v>2017</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>349</v>
+        <v>286</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>351</v>
+        <v>288</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>516</v>
+        <v>423</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>429</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2">
         <v>2018</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>474</v>
+        <v>325</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>386</v>
+        <v>305</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>430</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>398</v>
+        <v>518</v>
       </c>
       <c r="C45" s="2">
         <v>2018</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>421</v>
+        <v>326</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C46" s="2">
         <v>2018</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>476</v>
+        <v>327</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>417</v>
+        <v>336</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>432</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="C47" s="2">
         <v>2018</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>477</v>
+        <v>328</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>386</v>
+        <v>340</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>519</v>
+        <v>426</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>433</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>514</v>
       </c>
       <c r="C48" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>478</v>
+        <v>41</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>386</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="J48" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>434</v>
+        <v>86</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>513</v>
       </c>
       <c r="C49" s="2">
         <v>2016</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>235</v>
+        <v>42</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>435</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>512</v>
       </c>
       <c r="C50" s="2">
         <v>2016</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>479</v>
+        <v>43</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>241</v>
+        <v>310</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>436</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>510</v>
       </c>
       <c r="C51" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>480</v>
+        <v>44</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>521</v>
+        <v>428</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>437</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>508</v>
       </c>
       <c r="C52" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C53" s="2">
         <v>2014</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2015</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>482</v>
+        <v>46</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>386</v>
+        <v>310</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>439</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>504</v>
       </c>
       <c r="C54" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>483</v>
+        <v>304</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>251</v>
+        <v>306</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>523</v>
+        <v>430</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>440</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2">
         <v>2018</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>484</v>
+        <v>551</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>524</v>
+        <v>431</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>441</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="C56" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C63" s="2">
         <v>2018</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C69" s="2">
         <v>2014</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>386</v>
+      <c r="E74" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/Information extraction.xlsx
+++ b/Information extraction.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_2DDD20E6EEC5289E456FDEC1062B9E2F7C307FA9" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{11AF8D77-F5EA-433C-BCB1-2749D6F174AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87CFEF2-18D1-411F-B403-8243CF3516F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="765">
   <si>
     <t>Study Title</t>
   </si>
@@ -2648,6 +2648,316 @@
   </si>
   <si>
     <t xml:space="preserve"> Imply and deploy RAPID using Jerasure 1.2 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big data analytics architecture design—an application in manufacturing systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Data Opportunities: System Health Monitoring and Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of ACE properties of traditional SQL and NoSQL big data systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Systems Monitoring and Big Data Analysis Using the Elasticsearch System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collaboration- and Fairness-Aware Big Data Management in Distributed Clouds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A cloud-based energy data mining information agent system based on big data analysis technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsuehyuan Lin, Shengyuan Yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahdi Fahmideh, Ghassan Beydoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qiufen Xia, Weifa Liang, Albert Y. Zomaya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kwok Leung Tsui, Yang Zhao et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T.Ramalingeswara Rao, Pabitra et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maria Teresa Gonzalez Aparicio et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vlad Andrei Zamfir, Mihai Carabas et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dawei Sun, Hongbin Yan, Shang Gao et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marco Barsacchi, Alessio Bechini, Pietro Ducange.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The big data system, components, tools, and technologies: a survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rethinking elastic online scheduling of big data streaming applications over high-velocity continuous data streams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimizing Partition Granularity, Membership Function Parameters, and Rule Bases of Fuzzy Classifiers for Big Data by a Multi-objective Evolutionary Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Develop an energy data mining information agent, OntoDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OntoDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proposed models can  increas performance and accelerated prediction results.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The quick cache mechanism in the Solutions Pool of this OntoDMA system can increase the average system operation performance by 19.82%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose an approach for goal-obstacle analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data analytics platforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The model provides an approach aiding system architects for goal-obstacle analysis of big data solution architectures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide further automatic support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The adaptability of this method has been verified.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume and velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propose a model named System health monitoring and management (SHMM)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss SHMM's relationship with other disciplines, and provide several application examples for complex systems and critical components in a big data environment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related basic research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Systematically studies big data tools and technologies, and puts forward some key points related to research direction and opportunities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comprehensive introduction to big data system, components, tools and technologies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comprehensive study on the application of big data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proposed framework can be applied in many fields.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In streaming systems, there is a scope to develop online ML algorithms that are used for better search and process Real-time data to provide faster solutions to the end users.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A new system has been developed, and TPC-DS industry standard benchmark has been adopted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Mentioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A new system based on TPC-DS industry standard</t>
+  </si>
+  <si>
+    <t>Evaluate and analyze trade-offs between ACE attributes. It provides insight into the NoSQL system and how to improve it to make it sustainable for a wider range of applications.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A detailed comparison between SQL and NoSQL is made.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus on enhancing the system's detection functionality by applying Machine Learning jobs on the stored data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development of tracking scalable elastic search monitoring system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elasticsearch infrastructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The framework can monitor logs and event data generated by the infrastructure to which it is connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use machine learning technology to enhance the system to improve the efficiency of fault discovery and mitigation by automatically identifying exceptions and alerting infrastructure administrators.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proposed algorithm is superior to other heuristic algorithms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study a novel big data management problem with collaboration and fairness awareness in distributed cloud environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big data management with collaboration and fairness awareness in distributed cloud environment is considered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An elastic online scheduling framework (e-stream) for large data stream applications is proposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proposed e-stream provides better system response time and application fairness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scheduling fairness of multiple applications is realized. Investigate how to minimize system response time and ensure application fairness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop a complete elastic online scheduling framework based on e-stream and deploy e-stream in the actual big data stream computing environment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPAES-FDT-GL achieves better results than DFAC-FFP, with a complexity smaller by two orders of magnitude.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPAES-FDT-GL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPAES-FDT-GL is proposed to generate a set of classifiers based on fuzzy rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This method extends dpaes-rcs, which is a distributed multi-objective evolutionary algorithm recently proposed in Apache spark framework.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve the problem of training set size in the specific setting of the method without losing the accuracy obtained.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3054,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3376,7 @@
     <col min="2" max="2" width="43.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
@@ -3084,6 +3394,7 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="10"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -6160,6 +6471,375 @@
         <v>686</v>
       </c>
     </row>
+    <row r="77" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
